--- a/data/trans_bre/P19C09-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Clase-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 3,92</t>
+          <t>-0,95; 4,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 4,92</t>
+          <t>-1,53; 5,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,62</t>
+          <t>-1,83; 3,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 569,48</t>
+          <t>-56,93; 722,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,36; 268,89</t>
+          <t>-44,12; 282,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,85; 260,32</t>
+          <t>-50,23; 323,38</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 2,47</t>
+          <t>-2,0; 2,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 6,08</t>
+          <t>-0,45; 5,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 3,59</t>
+          <t>-1,61; 3,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-69,81; 359,2</t>
+          <t>-74,33; 288,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-27,49; 742,2</t>
+          <t>-37,41; 583,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,34; 470,56</t>
+          <t>-53,14; 404,87</t>
         </is>
       </c>
     </row>
@@ -802,27 +802,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 3,82</t>
+          <t>-3,04; 4,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,12</t>
+          <t>-1,43; 3,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,46; -1,28</t>
+          <t>-4,78; -1,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-78,08; 206,06</t>
+          <t>-80,94; 258,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 329,6</t>
+          <t>-55,93; 294,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 0,81</t>
+          <t>-2,47; 0,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 2,87</t>
+          <t>-0,19; 2,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,39</t>
+          <t>-2,04; 1,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-68,08; 39,97</t>
+          <t>-64,56; 42,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,21; 372,47</t>
+          <t>-19,01; 358,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,98; 62,05</t>
+          <t>-57,23; 73,59</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 2,58</t>
+          <t>-3,4; 2,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,36</t>
+          <t>-1,12; 2,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 1,58</t>
+          <t>-2,71; 1,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-58,14; 138,54</t>
+          <t>-59,62; 127,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 636,77</t>
+          <t>-51,59; 566,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-59,08; 75,52</t>
+          <t>-60,84; 93,86</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,73</t>
+          <t>-0,55; 3,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,9</t>
+          <t>-1,04; 2,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,89</t>
+          <t>-5,2; 0,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 451,62</t>
+          <t>-18,33; 634,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,34; 742,92</t>
+          <t>-46,02; 578,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-69,79; 41,5</t>
+          <t>-71,05; 49,3</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,37</t>
+          <t>-0,43; 1,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,88</t>
+          <t>0,27; 1,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,65</t>
+          <t>-1,01; 0,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 61,75</t>
+          <t>-15,35; 62,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,24; 143,81</t>
+          <t>11,77; 140,75</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-33,87; 26,53</t>
+          <t>-31,53; 32,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C09-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Clase-trans_bre.xlsx
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
